--- a/mindSpore/flora_quest.xlsx
+++ b/mindSpore/flora_quest.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5572d75b72b7ff4a/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E64D05F-F3A4-4901-A867-6141806E77F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{5E64D05F-F3A4-4901-A867-6141806E77F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6FBAF94F-8D3C-4C97-A2C3-A6E2122AFD3B}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -396,11 +396,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,7 +421,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -431,5 +431,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>